--- a/SchedulingData/dynamic16/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,140 +462,140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.62</v>
+        <v>237.86</v>
       </c>
       <c r="D2" t="n">
-        <v>287.92</v>
+        <v>285.3</v>
       </c>
       <c r="E2" t="n">
-        <v>13.388</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216.5</v>
+        <v>285.3</v>
       </c>
       <c r="D3" t="n">
-        <v>287.22</v>
+        <v>332.18</v>
       </c>
       <c r="E3" t="n">
-        <v>13.428</v>
+        <v>9.012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>203.24</v>
+        <v>332.18</v>
       </c>
       <c r="D4" t="n">
-        <v>263.32</v>
+        <v>401.74</v>
       </c>
       <c r="E4" t="n">
-        <v>15.208</v>
+        <v>4.696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>238.88</v>
+        <v>235.2</v>
       </c>
       <c r="D5" t="n">
-        <v>304.54</v>
+        <v>301.02</v>
       </c>
       <c r="E5" t="n">
-        <v>10.236</v>
+        <v>12.028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>263.32</v>
+        <v>223.38</v>
       </c>
       <c r="D6" t="n">
-        <v>320.82</v>
+        <v>281</v>
       </c>
       <c r="E6" t="n">
-        <v>11.568</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>249.4</v>
+        <v>221.28</v>
       </c>
       <c r="D7" t="n">
-        <v>307.2</v>
+        <v>292.22</v>
       </c>
       <c r="E7" t="n">
-        <v>11.94</v>
+        <v>9.968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>304.54</v>
+        <v>255.08</v>
       </c>
       <c r="D8" t="n">
-        <v>376.1</v>
+        <v>326.24</v>
       </c>
       <c r="E8" t="n">
-        <v>6.18</v>
+        <v>11.016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -603,18 +603,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>215.4</v>
+        <v>281</v>
       </c>
       <c r="D9" t="n">
-        <v>271.6</v>
+        <v>352</v>
       </c>
       <c r="E9" t="n">
-        <v>11.04</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,165 +622,165 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>376.1</v>
+        <v>352</v>
       </c>
       <c r="D10" t="n">
-        <v>436.64</v>
+        <v>417.64</v>
       </c>
       <c r="E10" t="n">
-        <v>1.756</v>
+        <v>4.156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>436.64</v>
+        <v>326.24</v>
       </c>
       <c r="D11" t="n">
-        <v>539.53</v>
+        <v>365.64</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>7.716</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>287.22</v>
+        <v>365.64</v>
       </c>
       <c r="D12" t="n">
-        <v>374.92</v>
+        <v>436.64</v>
       </c>
       <c r="E12" t="n">
-        <v>8.747999999999999</v>
+        <v>3.236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>307.2</v>
+        <v>292.22</v>
       </c>
       <c r="D13" t="n">
-        <v>381.48</v>
+        <v>348.16</v>
       </c>
       <c r="E13" t="n">
-        <v>8.132</v>
+        <v>7.004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>287.92</v>
+        <v>239.38</v>
       </c>
       <c r="D14" t="n">
-        <v>341.56</v>
+        <v>312.3</v>
       </c>
       <c r="E14" t="n">
-        <v>9.644</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>341.56</v>
+        <v>312.3</v>
       </c>
       <c r="D15" t="n">
-        <v>401.96</v>
+        <v>391.66</v>
       </c>
       <c r="E15" t="n">
-        <v>5.224</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>271.6</v>
+        <v>417.64</v>
       </c>
       <c r="D16" t="n">
-        <v>328.7</v>
+        <v>515.73</v>
       </c>
       <c r="E16" t="n">
-        <v>7.96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>539.53</v>
+        <v>515.73</v>
       </c>
       <c r="D17" t="n">
-        <v>610.5700000000001</v>
+        <v>583.91</v>
       </c>
       <c r="E17" t="n">
-        <v>27.036</v>
+        <v>25.352</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>320.82</v>
+        <v>401.74</v>
       </c>
       <c r="D18" t="n">
-        <v>366</v>
+        <v>445.86</v>
       </c>
       <c r="E18" t="n">
-        <v>8.18</v>
+        <v>1.924</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>328.7</v>
+        <v>445.86</v>
       </c>
       <c r="D19" t="n">
-        <v>381.14</v>
+        <v>523.71</v>
       </c>
       <c r="E19" t="n">
-        <v>4.836</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>374.92</v>
+        <v>583.91</v>
       </c>
       <c r="D20" t="n">
-        <v>458.02</v>
+        <v>635.77</v>
       </c>
       <c r="E20" t="n">
-        <v>5.508</v>
+        <v>21.296</v>
       </c>
     </row>
     <row r="21">
@@ -827,150 +827,150 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>366</v>
+        <v>391.66</v>
       </c>
       <c r="D21" t="n">
-        <v>421.1</v>
+        <v>435.96</v>
       </c>
       <c r="E21" t="n">
-        <v>4.8</v>
+        <v>6.204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>381.14</v>
+        <v>436.64</v>
       </c>
       <c r="D22" t="n">
-        <v>439.8</v>
+        <v>516.77</v>
       </c>
       <c r="E22" t="n">
-        <v>2.08</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>421.1</v>
+        <v>516.77</v>
       </c>
       <c r="D23" t="n">
-        <v>471.28</v>
+        <v>564.77</v>
       </c>
       <c r="E23" t="n">
-        <v>0.912</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>471.28</v>
+        <v>301.02</v>
       </c>
       <c r="D24" t="n">
-        <v>556.0599999999999</v>
+        <v>361.94</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>7.556</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>610.5700000000001</v>
+        <v>435.96</v>
       </c>
       <c r="D25" t="n">
-        <v>658.33</v>
+        <v>481.82</v>
       </c>
       <c r="E25" t="n">
-        <v>23.9</v>
+        <v>2.748</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>439.8</v>
+        <v>564.77</v>
       </c>
       <c r="D26" t="n">
-        <v>512.4400000000001</v>
+        <v>617.17</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>512.4400000000001</v>
+        <v>481.82</v>
       </c>
       <c r="D27" t="n">
-        <v>569.8200000000001</v>
+        <v>568.02</v>
       </c>
       <c r="E27" t="n">
-        <v>26.932</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>458.02</v>
+        <v>568.02</v>
       </c>
       <c r="D28" t="n">
-        <v>518.22</v>
+        <v>637.26</v>
       </c>
       <c r="E28" t="n">
-        <v>1.608</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>518.22</v>
+        <v>361.94</v>
       </c>
       <c r="D29" t="n">
-        <v>606.5</v>
+        <v>428.48</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>4.532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>381.48</v>
+        <v>428.48</v>
       </c>
       <c r="D30" t="n">
-        <v>451.38</v>
+        <v>470.58</v>
       </c>
       <c r="E30" t="n">
-        <v>4.232</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>556.0599999999999</v>
+        <v>470.58</v>
       </c>
       <c r="D31" t="n">
-        <v>598.36</v>
+        <v>578.98</v>
       </c>
       <c r="E31" t="n">
-        <v>26.96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>401.96</v>
+        <v>348.16</v>
       </c>
       <c r="D32" t="n">
-        <v>468.72</v>
+        <v>406.26</v>
       </c>
       <c r="E32" t="n">
-        <v>1.168</v>
+        <v>4.284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>468.72</v>
+        <v>617.17</v>
       </c>
       <c r="D33" t="n">
-        <v>543.1799999999999</v>
+        <v>675.9299999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>21.004</v>
       </c>
     </row>
     <row r="34">
@@ -1074,150 +1074,150 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>606.5</v>
+        <v>578.98</v>
       </c>
       <c r="D34" t="n">
-        <v>673.4</v>
+        <v>625.96</v>
       </c>
       <c r="E34" t="n">
-        <v>26.46</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>543.1799999999999</v>
+        <v>637.26</v>
       </c>
       <c r="D35" t="n">
-        <v>630.48</v>
+        <v>708.76</v>
       </c>
       <c r="E35" t="n">
-        <v>26.4</v>
+        <v>22.716</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>451.38</v>
+        <v>523.71</v>
       </c>
       <c r="D36" t="n">
-        <v>494.9</v>
+        <v>588.17</v>
       </c>
       <c r="E36" t="n">
-        <v>1.02</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>494.9</v>
+        <v>625.96</v>
       </c>
       <c r="D37" t="n">
-        <v>594.16</v>
+        <v>700.36</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>24.632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>598.36</v>
+        <v>700.36</v>
       </c>
       <c r="D38" t="n">
-        <v>645.5599999999999</v>
+        <v>743.02</v>
       </c>
       <c r="E38" t="n">
-        <v>24.84</v>
+        <v>21.496</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>673.4</v>
+        <v>588.17</v>
       </c>
       <c r="D39" t="n">
-        <v>724.6</v>
+        <v>631.59</v>
       </c>
       <c r="E39" t="n">
-        <v>23.94</v>
+        <v>22.532</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>594.16</v>
+        <v>406.26</v>
       </c>
       <c r="D40" t="n">
-        <v>661.86</v>
+        <v>457.76</v>
       </c>
       <c r="E40" t="n">
-        <v>27.36</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>724.6</v>
+        <v>457.76</v>
       </c>
       <c r="D41" t="n">
-        <v>785.74</v>
+        <v>528.23</v>
       </c>
       <c r="E41" t="n">
-        <v>20.916</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>630.48</v>
+        <v>635.77</v>
       </c>
       <c r="D42" t="n">
-        <v>696.78</v>
+        <v>688.61</v>
       </c>
       <c r="E42" t="n">
-        <v>22.38</v>
+        <v>18.612</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>569.8200000000001</v>
+        <v>528.23</v>
       </c>
       <c r="D43" t="n">
-        <v>632.6</v>
+        <v>569.03</v>
       </c>
       <c r="E43" t="n">
-        <v>22.284</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="44">
@@ -1264,93 +1264,74 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>658.33</v>
+        <v>569.03</v>
       </c>
       <c r="D44" t="n">
-        <v>698.23</v>
+        <v>648.73</v>
       </c>
       <c r="E44" t="n">
-        <v>21.04</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>696.78</v>
+        <v>631.59</v>
       </c>
       <c r="D45" t="n">
-        <v>765.4400000000001</v>
+        <v>708.29</v>
       </c>
       <c r="E45" t="n">
-        <v>18.124</v>
+        <v>18.932</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>645.5599999999999</v>
+        <v>648.73</v>
       </c>
       <c r="D46" t="n">
-        <v>724.6799999999999</v>
+        <v>717.71</v>
       </c>
       <c r="E46" t="n">
-        <v>20.528</v>
+        <v>18.912</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>632.6</v>
+        <v>708.76</v>
       </c>
       <c r="D47" t="n">
-        <v>695.4400000000001</v>
+        <v>736.36</v>
       </c>
       <c r="E47" t="n">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond52</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>661.86</v>
-      </c>
-      <c r="D48" t="n">
-        <v>724.36</v>
-      </c>
-      <c r="E48" t="n">
-        <v>24.72</v>
+        <v>20.596</v>
       </c>
     </row>
   </sheetData>
